--- a/COC04.xlsx
+++ b/COC04.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="177">
   <si>
     <t/>
   </si>
@@ -61,13 +61,13 @@
     <t>20014973</t>
   </si>
   <si>
-    <t>S/Q CHOCO CRISPY 53G</t>
+    <t>S/Q CHOCO CRISPY 50G</t>
   </si>
   <si>
     <t>10004982</t>
   </si>
   <si>
-    <t>S/Q CHO FRUIT&amp;NUT 55</t>
+    <t>S/Q CHO FRUIT&amp;NUT 52</t>
   </si>
   <si>
     <t>20036148</t>
@@ -85,7 +85,7 @@
     <t>20095888</t>
   </si>
   <si>
-    <t>S/Q CHUNKY WHT 85G</t>
+    <t>S/Q CHUNKY WHT 82G</t>
   </si>
   <si>
     <t>10010192</t>
@@ -103,13 +103,13 @@
     <t>20022908</t>
   </si>
   <si>
-    <t>S/Q CHUNKY ALMOND 85</t>
+    <t>S/Q CHUNKY ALMOND 82</t>
   </si>
   <si>
     <t>10003485</t>
   </si>
   <si>
-    <t>S/Q CHOCO ALMOND 55G</t>
+    <t>S/Q CHOCO ALMOND 52G</t>
   </si>
   <si>
     <t>5</t>
@@ -118,7 +118,7 @@
     <t>10036987</t>
   </si>
   <si>
-    <t>S/Q CHOCO CASHEW 55G</t>
+    <t>S/Q CHOCO CASHEW 52G</t>
   </si>
   <si>
     <t>20140016</t>
@@ -142,12 +142,6 @@
     <t>KITKAT 2F MLTPACK102</t>
   </si>
   <si>
-    <t>10036982</t>
-  </si>
-  <si>
-    <t>KIT KAT CHO 2F 17G</t>
-  </si>
-  <si>
     <t>10015698</t>
   </si>
   <si>
@@ -325,7 +319,7 @@
     <t>10000760</t>
   </si>
   <si>
-    <t>FISH.EXTRA STRG PT25</t>
+    <t>FISH.EXTRA STRG PT22</t>
   </si>
   <si>
     <t>14</t>
@@ -334,31 +328,31 @@
     <t>10001414</t>
   </si>
   <si>
-    <t>FISH.STRNG.MINT HJ25</t>
+    <t>FISH.STRNG.MINT HJ22</t>
   </si>
   <si>
     <t>10005583</t>
   </si>
   <si>
-    <t>FISHERMAN'S LEMON 25</t>
+    <t>FISHERMAN'S LEMON 22</t>
   </si>
   <si>
     <t>20068396</t>
   </si>
   <si>
-    <t>FSHERMAN'S SPRMNT 25</t>
+    <t>FSHERMAN'S SPRMNT 22</t>
   </si>
   <si>
     <t>20069699</t>
   </si>
   <si>
-    <t>FSHRMAN'S HNY&amp;LMN 25</t>
+    <t>FSHRMAN'S HNY&amp;LMN 22</t>
   </si>
   <si>
     <t>20054913</t>
   </si>
   <si>
-    <t>FSHERMAN'S BLKCRN 25</t>
+    <t>FSHERMAN'S BLKCRN 22</t>
   </si>
   <si>
     <t>20122072</t>
@@ -940,7 +934,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F77"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -1322,10 +1316,10 @@
         <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>5</v>
@@ -1333,19 +1327,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>5</v>
@@ -1362,10 +1356,10 @@
         <v>3</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>5</v>
@@ -1382,10 +1376,10 @@
         <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>5</v>
@@ -1402,10 +1396,10 @@
         <v>3</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>5</v>
@@ -1422,10 +1416,10 @@
         <v>3</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>5</v>
@@ -1433,19 +1427,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>5</v>
@@ -1462,10 +1456,10 @@
         <v>3</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>5</v>
@@ -1482,10 +1476,10 @@
         <v>3</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>5</v>
@@ -1502,10 +1496,10 @@
         <v>3</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>5</v>
@@ -1513,19 +1507,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>5</v>
@@ -1542,10 +1536,10 @@
         <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>5</v>
@@ -1562,33 +1556,33 @@
         <v>3</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="E32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1602,13 +1596,13 @@
         <v>3</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1622,30 +1616,30 @@
         <v>3</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="E35" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>5</v>
@@ -1662,10 +1656,10 @@
         <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>5</v>
@@ -1673,19 +1667,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>5</v>
@@ -1702,10 +1696,10 @@
         <v>3</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>5</v>
@@ -1722,10 +1716,10 @@
         <v>3</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>5</v>
@@ -1742,10 +1736,10 @@
         <v>3</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>5</v>
@@ -1753,19 +1747,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="E41" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>5</v>
@@ -1782,10 +1776,10 @@
         <v>3</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>5</v>
@@ -1802,10 +1796,10 @@
         <v>3</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>5</v>
@@ -1822,10 +1816,10 @@
         <v>3</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>5</v>
@@ -1833,19 +1827,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="E45" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>5</v>
@@ -1862,10 +1856,10 @@
         <v>3</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>5</v>
@@ -1882,10 +1876,10 @@
         <v>3</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>5</v>
@@ -1902,10 +1896,10 @@
         <v>3</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>5</v>
@@ -1922,10 +1916,10 @@
         <v>3</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>5</v>
@@ -1942,33 +1936,33 @@
         <v>3</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="E51" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1982,13 +1976,13 @@
         <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2002,10 +1996,10 @@
         <v>3</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>5</v>
@@ -2022,10 +2016,10 @@
         <v>3</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>5</v>
@@ -2033,19 +2027,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="E55" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>5</v>
@@ -2062,10 +2056,10 @@
         <v>3</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>5</v>
@@ -2082,10 +2076,10 @@
         <v>3</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>5</v>
@@ -2102,10 +2096,10 @@
         <v>3</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>5</v>
@@ -2122,10 +2116,10 @@
         <v>3</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>5</v>
@@ -2142,10 +2136,10 @@
         <v>3</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>5</v>
@@ -2153,19 +2147,19 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="E61" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>5</v>
@@ -2182,10 +2176,10 @@
         <v>3</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>5</v>
@@ -2202,10 +2196,10 @@
         <v>3</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>5</v>
@@ -2222,10 +2216,10 @@
         <v>3</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>5</v>
@@ -2233,19 +2227,19 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="E65" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>5</v>
@@ -2262,33 +2256,33 @@
         <v>3</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>154</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2302,33 +2296,33 @@
         <v>3</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="E69" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2342,13 +2336,13 @@
         <v>3</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2362,13 +2356,13 @@
         <v>3</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2382,13 +2376,13 @@
         <v>3</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2402,30 +2396,30 @@
         <v>3</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>154</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="E74" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>5</v>
@@ -2442,10 +2436,10 @@
         <v>3</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>5</v>
@@ -2462,10 +2456,10 @@
         <v>3</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>5</v>
@@ -2482,32 +2476,12 @@
         <v>3</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F78" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/COC04.xlsx
+++ b/COC04.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="179">
   <si>
     <t/>
   </si>
@@ -281,6 +281,12 @@
   </si>
   <si>
     <t>WNHAE STRW CHEESCAKE</t>
+  </si>
+  <si>
+    <t>20141002</t>
+  </si>
+  <si>
+    <t>WONHAE MTCHA BRY 30G</t>
   </si>
   <si>
     <t>20135661</t>
@@ -934,7 +940,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F78"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -1719,7 +1725,7 @@
         <v>85</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>5</v>
@@ -1736,10 +1742,10 @@
         <v>3</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>5</v>
@@ -1747,19 +1753,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="E41" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>5</v>
@@ -1776,10 +1782,10 @@
         <v>3</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>5</v>
@@ -1796,10 +1802,10 @@
         <v>3</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>5</v>
@@ -1816,10 +1822,10 @@
         <v>3</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>5</v>
@@ -1827,19 +1833,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="E45" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>5</v>
@@ -1856,10 +1862,10 @@
         <v>3</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>5</v>
@@ -1876,10 +1882,10 @@
         <v>3</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>5</v>
@@ -1896,10 +1902,10 @@
         <v>3</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>5</v>
@@ -1916,10 +1922,10 @@
         <v>3</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>5</v>
@@ -1936,30 +1942,30 @@
         <v>3</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="E51" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>73</v>
@@ -1976,13 +1982,13 @@
         <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1996,10 +2002,10 @@
         <v>3</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>5</v>
@@ -2016,10 +2022,10 @@
         <v>3</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>5</v>
@@ -2027,19 +2033,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="E55" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>5</v>
@@ -2056,10 +2062,10 @@
         <v>3</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>5</v>
@@ -2076,10 +2082,10 @@
         <v>3</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>5</v>
@@ -2096,10 +2102,10 @@
         <v>3</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>5</v>
@@ -2116,10 +2122,10 @@
         <v>3</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>5</v>
@@ -2136,10 +2142,10 @@
         <v>3</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>5</v>
@@ -2147,19 +2153,19 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="E61" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>5</v>
@@ -2176,10 +2182,10 @@
         <v>3</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>5</v>
@@ -2196,10 +2202,10 @@
         <v>3</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>5</v>
@@ -2216,10 +2222,10 @@
         <v>3</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>5</v>
@@ -2227,19 +2233,19 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="E65" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>5</v>
@@ -2256,33 +2262,33 @@
         <v>3</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>152</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2296,33 +2302,33 @@
         <v>3</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>152</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="E69" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2336,13 +2342,13 @@
         <v>3</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2356,13 +2362,13 @@
         <v>3</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2376,13 +2382,13 @@
         <v>3</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2396,30 +2402,30 @@
         <v>3</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="C74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="E74" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>5</v>
@@ -2436,10 +2442,10 @@
         <v>3</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>5</v>
@@ -2456,10 +2462,10 @@
         <v>3</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>5</v>
@@ -2476,12 +2482,32 @@
         <v>3</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F78" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/COC04.xlsx
+++ b/COC04.xlsx
@@ -178,7 +178,7 @@
     <t>20072367</t>
   </si>
   <si>
-    <t>CADBURY CSHW NUT 57G</t>
+    <t>CADBURY CSHW NUT 52G</t>
   </si>
   <si>
     <t>8</t>
@@ -214,7 +214,7 @@
     <t>20039717</t>
   </si>
   <si>
-    <t>CADBURY DAIRY MLK 57</t>
+    <t>CADBURY DAIRY MLK 52</t>
   </si>
   <si>
     <t>20082194</t>
